--- a/src/notes/lmp/data/npcc_ibr.xlsx
+++ b/src/notes/lmp/data/npcc_ibr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/psal/src/notes/lmp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06253DC5-7404-D94D-9E68-5071B149884C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944EF65D-5B90-4243-94D5-4C1F6A52E18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="-11540" windowWidth="21600" windowHeight="18940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -14025,8 +14025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57151293-C53F-A04A-9F45-3C50CCF34BCE}">
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15597,9 +15597,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25487,7 +25487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B501BF09-BEDD-AA46-8E5E-7FC8BC279845}">
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
